--- a/Cert/AMFE-s_Proceso_GlaucoTech.xlsx
+++ b/Cert/AMFE-s_Proceso_GlaucoTech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Escritorio\3ºCURSO\2.Cuatri\PBL6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Escritorio\3ºCURSO\2.Cuatri\PBL6\Certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A117F-A8F9-4EE9-86DA-D43FEE2A5EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE88F4-F09E-4C52-9B21-99BB6EDE8047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>EFECTOS</t>
   </si>
@@ -55,13 +55,7 @@
  Y CONTROL PREVISTAS</t>
   </si>
   <si>
-    <t>FRECUENCIA</t>
-  </si>
-  <si>
     <t>GRAVEDAD</t>
-  </si>
-  <si>
-    <t>DETECTABILIDAD</t>
   </si>
   <si>
     <t>ESTADO ACTUAL</t>
@@ -105,57 +99,6 @@
     <t>PROCESO</t>
   </si>
   <si>
-    <t>BASE DE DATOS</t>
-  </si>
-  <si>
-    <t>Calidad de Imagen</t>
-  </si>
-  <si>
-    <t>Mal centrada la imagen</t>
-  </si>
-  <si>
-    <t>Imagen borrosa</t>
-  </si>
-  <si>
-    <t>Reflejos de luz en la imagen</t>
-  </si>
-  <si>
-    <t>Las imágenes no se pueden procesar mediante el programa de prediccón, para determinar la presencia de glaucoma, debido a que la segmentación no se puede realizar de manera adecuada.</t>
-  </si>
-  <si>
-    <t>La capturadora de la imagen del ojo no esta centrada en el disco óptico del ojo.</t>
-  </si>
-  <si>
-    <t>La capturadora de la imagen del ojo se mueve durante el proceso de optención de imagen.</t>
-  </si>
-  <si>
-    <t>Excesiva iluminación del ojo durante el momento de optención de la imagen.</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE DETECCIÓN DE CALIDAD</t>
-  </si>
-  <si>
-    <t>Fallo en la detección del ruido en la imagen</t>
-  </si>
-  <si>
-    <t>No se descarta la imagen antes de introducirse en el modelo de predicción  por lo que el no se obtendrá un resultado consistente.</t>
-  </si>
-  <si>
-    <t>El programa no contempla todo tipo de ruidos, no detectando el ruido de la imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallo en la detección de contraste </t>
-  </si>
-  <si>
-    <t>El resultdao del programa no será correcto o directamente no dará resultado ya que no será capaz de segmentar las diferentes estructuras anatómicas del ojo.</t>
-  </si>
-  <si>
-    <t>No se descarta la imagen que no permite una adecuada segmentación antes de ser introducida en el programa de predicción de glaucoma.</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE PREDICCIÓN DE GLAUCOMA</t>
-  </si>
-  <si>
     <t>Segmentación</t>
   </si>
   <si>
@@ -171,15 +114,6 @@
     <t>Todas las imágenes no tienen la misma intensidad.</t>
   </si>
   <si>
-    <t>Dificultad para identificar el ROI en todas.</t>
-  </si>
-  <si>
-    <t>No se distingue de manera adecuada cada una de las partes anatómicas.</t>
-  </si>
-  <si>
-    <t>Fallo en el programa encargado de su detección.</t>
-  </si>
-  <si>
     <t>Convertir toda la imagen en color homogéneo.</t>
   </si>
   <si>
@@ -189,36 +123,9 @@
     <t>No tener un rango de intensidades similares en todas las imágenes.</t>
   </si>
   <si>
-    <t>INTERFAZ</t>
-  </si>
-  <si>
-    <t>PÁGINA WEB</t>
-  </si>
-  <si>
-    <t>ETIQUETA</t>
-  </si>
-  <si>
-    <t>Descripción del producto</t>
-  </si>
-  <si>
-    <t>Falta de información del producto</t>
-  </si>
-  <si>
-    <t>Uso erróneo del producto por desconocimiento del profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El producto esta mal explicado o falta información sobre algunos detalles </t>
-  </si>
-  <si>
-    <t>Programación de la Web</t>
-  </si>
-  <si>
     <t>Error de carga de la página</t>
   </si>
   <si>
-    <t>Sin acceso a la información proporcionada en la página web</t>
-  </si>
-  <si>
     <t>Caida del servidor por exceso de gente en la página al mismo tiempo</t>
   </si>
   <si>
@@ -243,30 +150,6 @@
     <t>Diseño del Etiquetado</t>
   </si>
   <si>
-    <t>Interferencias</t>
-  </si>
-  <si>
-    <t>Error de carga de imagen</t>
-  </si>
-  <si>
-    <t>Carga de Datos</t>
-  </si>
-  <si>
-    <t>Error en muestra de resultado</t>
-  </si>
-  <si>
-    <t>La imagen introducida al sistema no se puede procesar de tal manera que no se pueda ver resultado.</t>
-  </si>
-  <si>
-    <t>Error en la conexión entre interfaz y código del programa de procesado y predicción.</t>
-  </si>
-  <si>
-    <t>El profesional sanitario no puede acceder a la información facilitada por la aplicación.</t>
-  </si>
-  <si>
-    <t>Punto de control para validar que el sistema completo  funcione como se espera en su conjunto, y garantizar que nuevas modificaciones o correcciones no introduzcan nuevos errores en el sistema.</t>
-  </si>
-  <si>
     <t>Punto de Control en la validación y comprobación de la etiqueta</t>
   </si>
   <si>
@@ -288,16 +171,166 @@
     <t>Visualización previa de la imagen realizada antes de su procesado y aseguramiento de modelo de calidad más estricto</t>
   </si>
   <si>
-    <t>Aseguramiento de modelo de calidad más estricto para evitar realizar el análisis de imágenes no deseadas</t>
-  </si>
-  <si>
     <t>Punto de control posterior a la detección de la enfermedad, por parte del profesional,  para comprobar que la segmentación se ha realizado correctamente</t>
   </si>
   <si>
     <t>Punto de Control en la validación y comprobación de la descripción del producto</t>
   </si>
   <si>
-    <t>Revisión del código de la pagina y revisión continua de este.</t>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>INSTALACIÓN</t>
+  </si>
+  <si>
+    <t>Falta de información de la instalación del producto</t>
+  </si>
+  <si>
+    <t>Descarga errónea del producto por desconocimiento del profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La instalación producto esta mal explicado o falta información sobre algunos detalles </t>
+  </si>
+  <si>
+    <t>Descripción de la instalación del producto</t>
+  </si>
+  <si>
+    <t>Falta de acceso a descargar</t>
+  </si>
+  <si>
+    <t>Sin acceso a la página web, no pudiendo descargarse la aplicación</t>
+  </si>
+  <si>
+    <t>DESARROLLO</t>
+  </si>
+  <si>
+    <t>ETIQUETADO</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>Uso Inapropiado</t>
+  </si>
+  <si>
+    <t>Uso del producto para otro fin médico, por desconocmiento del producto</t>
+  </si>
+  <si>
+    <t>El producto no realiza la función para la que esta programada</t>
+  </si>
+  <si>
+    <t>Falta de información , en la descripción del producto</t>
+  </si>
+  <si>
+    <t>Revisión del código de la pagina y revisión continua de este</t>
+  </si>
+  <si>
+    <t>Mal uso del producto,  por desconocmiento de este</t>
+  </si>
+  <si>
+    <t>El producto da errores y no realiza su función</t>
+  </si>
+  <si>
+    <t>El usuario no lee las instrucciones del producto, y no sabe como se utiliza</t>
+  </si>
+  <si>
+    <t>Aseguramiento de que el usuario lee las instrucciones mediante,avisos previos al usuario de la obligación de ller las instrucciones antes de usar el producto</t>
+  </si>
+  <si>
+    <t>Etiqueta poco clara y difícil de entender</t>
+  </si>
+  <si>
+    <t>Un diseño confuso o desorganizado de la etiqueta  podría llevar a errores en el uso del producto</t>
+  </si>
+  <si>
+    <t>Mal estructuramiento y diseño de la información proporcionada en la etiqueta</t>
+  </si>
+  <si>
+    <t>Responsable de la validación y comprobación del etiquetado final</t>
+  </si>
+  <si>
+    <t>Mala configuración de la segmentación</t>
+  </si>
+  <si>
+    <t>La segmentación del ojo no detecta el disco bien, y realiza una segmentación incorrecta</t>
+  </si>
+  <si>
+    <t>En la programación del producto, las variables de la segmentación estan mal escogidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualización previa de la imagen segmentada realizada después de su procesado y aseguramiento de la correcta elección de variables </t>
+  </si>
+  <si>
+    <t>Error en los algoritmos de los modelos</t>
+  </si>
+  <si>
+    <t>Puede resultar en diagnósticos falsos positivos o negativos</t>
+  </si>
+  <si>
+    <t>Las variables encargadas de la predicción post-segmentación estan mal escogidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAVEDAD </t>
+  </si>
+  <si>
+    <t>OCURRENCIA</t>
+  </si>
+  <si>
+    <t>DETECCIÓN</t>
+  </si>
+  <si>
+    <t>Visualización previa de la imagen segmentada realizada después de su procesado y aseguramiento de modelos mas estrictos</t>
+  </si>
+  <si>
+    <t>Reprogramación de los modelos</t>
+  </si>
+  <si>
+    <t>Sergio Montero Alonso</t>
+  </si>
+  <si>
+    <t>Baja la Ocurrencia del problema</t>
+  </si>
+  <si>
+    <t>Falta de carácteristicas</t>
+  </si>
+  <si>
+    <t>En el procesado de imagen, el modelo no es capaz de sacar las suficientes características como para realizar la predicción</t>
+  </si>
+  <si>
+    <t>No hay un resultado concluyente</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario deficiente</t>
+  </si>
+  <si>
+    <t>No se sabe como utilizar el producto</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario mal diseñada</t>
+  </si>
+  <si>
+    <t>Revisión y validación de la interfaz</t>
+  </si>
+  <si>
+    <t>Integración del Software</t>
+  </si>
+  <si>
+    <t>Problemas de interoperabilidad con los sistemas sanitarios actuales</t>
+  </si>
+  <si>
+    <t>Falta de conexión entre sistemas</t>
+  </si>
+  <si>
+    <t>El software no es capaz de integrarse a los sistemas existentes en los hospitales</t>
+  </si>
+  <si>
+    <t>Aseguramiento de interoperabilidad del prodcuto y comprobación en la instalación</t>
+  </si>
+  <si>
+    <t>Modelos predictivos</t>
+  </si>
+  <si>
+    <t>Usuario y Interfaz</t>
   </si>
 </sst>
 </file>
@@ -347,6 +380,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -362,7 +396,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -596,17 +636,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -673,7 +702,73 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -681,22 +776,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -706,108 +820,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,7 +839,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,13 +852,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -851,25 +870,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,9 +903,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,39 +915,66 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,16 +1034,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,40 +1049,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1589,371 +1605,388 @@
   <sheetData>
     <row r="2" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:22" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
+      <c r="B3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
     </row>
     <row r="4" spans="2:22" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="2:22" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="64"/>
     </row>
     <row r="6" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="61"/>
+      <c r="B6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="66"/>
     </row>
     <row r="7" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="61"/>
+      <c r="B7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="66"/>
     </row>
     <row r="8" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="61"/>
+      <c r="B8" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="66"/>
     </row>
     <row r="9" spans="2:22" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="61"/>
+      <c r="B9" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="66"/>
     </row>
     <row r="10" spans="2:22" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="79" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="74" t="s">
+      <c r="R10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="73"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="76"/>
     </row>
     <row r="11" spans="2:22" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="44" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="42" t="s">
-        <v>18</v>
+      <c r="T11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>22</v>
+      <c r="B12" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="14">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10</v>
+      </c>
+      <c r="H12" s="14">
         <v>7</v>
       </c>
-      <c r="H12" s="38">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6</v>
-      </c>
-      <c r="J12" s="39">
-        <f>G12*H12*I12</f>
-        <v>252</v>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" ref="J12:J25" si="0">G12*H12*I12</f>
+        <v>560</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="43">
+        <f t="shared" ref="O12:O25" si="1">L12*M12*N12</f>
+        <v>250</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="7">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="R12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="3">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
         <v>2</v>
       </c>
-      <c r="O12" s="7">
-        <f>L12*M12*N12</f>
-        <v>42</v>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="41"/>
+      <c r="U12" s="3">
+        <v>5</v>
+      </c>
+      <c r="V12" s="44">
+        <f>S12*T12*U12</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="14">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="13">
         <v>7</v>
       </c>
-      <c r="H13" s="15">
-        <v>7</v>
+      <c r="H13" s="2">
+        <v>6</v>
       </c>
       <c r="I13" s="2">
-        <v>7</v>
-      </c>
-      <c r="J13" s="34">
-        <f t="shared" ref="J13:J25" si="0">G13*H13*I13</f>
-        <v>343</v>
+        <v>6</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="0"/>
+        <v>252</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7">
         <v>7</v>
       </c>
-      <c r="M13" s="3">
-        <v>4</v>
+      <c r="M13" s="15">
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" ref="O13:O25" si="1">L13*M13*N13</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1963,474 +1996,476 @@
       <c r="U13" s="4"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
+    <row r="14" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="51"/>
+      <c r="C14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
-        <v>6</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="J14" s="30">
         <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7</v>
-      </c>
-      <c r="M14" s="16">
+        <v>240</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="3">
+        <v>8</v>
+      </c>
+      <c r="M14" s="15">
         <v>3</v>
       </c>
-      <c r="N14" s="7">
-        <v>2</v>
+      <c r="N14" s="3">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
     </row>
-    <row r="15" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>33</v>
+    <row r="15" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="52"/>
+      <c r="C15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="O15" s="32">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+    </row>
+    <row r="16" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6">
         <v>8</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J16" s="41">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="29">
+      <c r="K16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="6">
+        <v>6</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>4</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="51"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" ref="J17" si="2">G17*H17*I17</f>
+        <v>343</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="32">
+        <f t="shared" ref="O17" si="3">L17*M17*N17</f>
+        <v>140</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="52"/>
+      <c r="C18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6</v>
+      </c>
+      <c r="O18" s="32">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="19">
         <v>9</v>
       </c>
-      <c r="M15" s="22">
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="26">
+        <v>6</v>
+      </c>
+      <c r="M19" s="26">
         <v>2</v>
       </c>
-      <c r="N15" s="29">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N19" s="26">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
     </row>
-    <row r="16" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="24" t="s">
+    <row r="20" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="52"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19">
+        <v>6</v>
+      </c>
+      <c r="I20" s="19">
+        <v>6</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="29">
+        <v>6</v>
+      </c>
+      <c r="M20" s="29">
+        <v>4</v>
+      </c>
+      <c r="N20" s="29">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2">
+      <c r="L21" s="2">
         <v>8</v>
       </c>
-      <c r="H16" s="2">
+      <c r="M21" s="2">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="51"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="19">
+        <v>7</v>
+      </c>
+      <c r="H22" s="40">
         <v>6</v>
       </c>
-      <c r="I16" s="2">
-        <v>7</v>
-      </c>
-      <c r="J16" s="34">
+      <c r="I22" s="19">
+        <v>8</v>
+      </c>
+      <c r="J22" s="33">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="K16" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="30">
-        <v>8</v>
-      </c>
-      <c r="M16" s="30">
+      <c r="K22" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="26">
+        <v>7</v>
+      </c>
+      <c r="M22" s="26">
         <v>4</v>
       </c>
-      <c r="N16" s="30">
-        <v>4</v>
-      </c>
-      <c r="O16" s="37">
+      <c r="N22" s="26">
+        <v>3</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6">
-        <v>6</v>
-      </c>
-      <c r="H17" s="6">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6">
-        <v>8</v>
-      </c>
-      <c r="J17" s="34">
-        <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="6">
-        <v>6</v>
-      </c>
-      <c r="M17" s="6">
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
-    </row>
-    <row r="18" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="6">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <v>8</v>
-      </c>
-      <c r="J18" s="34">
-        <f t="shared" si="0"/>
-        <v>392</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="6">
-        <v>7</v>
-      </c>
-      <c r="M18" s="6">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6">
-        <v>4</v>
-      </c>
-      <c r="O18" s="37">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-    </row>
-    <row r="19" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>5</v>
-      </c>
-      <c r="J19" s="36">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="2">
-        <v>6</v>
-      </c>
-      <c r="M19" s="2">
-        <v>4</v>
-      </c>
-      <c r="N19" s="2">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="26"/>
-    </row>
-    <row r="20" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="22">
-        <v>6</v>
-      </c>
-      <c r="H20" s="22">
-        <v>6</v>
-      </c>
-      <c r="I20" s="22">
-        <v>5</v>
-      </c>
-      <c r="J20" s="35">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="29">
-        <v>6</v>
-      </c>
-      <c r="M20" s="29">
-        <v>2</v>
-      </c>
-      <c r="N20" s="29">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
-    </row>
-    <row r="21" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="22">
-        <v>6</v>
-      </c>
-      <c r="H21" s="22">
-        <v>6</v>
-      </c>
-      <c r="I21" s="22">
-        <v>6</v>
-      </c>
-      <c r="J21" s="34">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="33">
-        <v>6</v>
-      </c>
-      <c r="M21" s="33">
-        <v>4</v>
-      </c>
-      <c r="N21" s="33">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
-    </row>
-    <row r="22" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="2">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2">
-        <v>7</v>
-      </c>
-      <c r="J22" s="34">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="2">
-        <v>8</v>
-      </c>
-      <c r="M22" s="2">
-        <v>3</v>
-      </c>
-      <c r="N22" s="2">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3">
         <v>8</v>
@@ -2441,12 +2476,12 @@
       <c r="I23" s="3">
         <v>6</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="30">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L23" s="3">
         <v>8</v>
@@ -2461,151 +2496,148 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="26"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G24" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24" s="6">
         <v>8</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="30">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="L24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" s="2">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="32">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="52"/>
+      <c r="C25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="30">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="26"/>
-    </row>
-    <row r="25" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="2">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2">
-        <v>4</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="2">
-        <v>6</v>
-      </c>
-      <c r="M25" s="2">
-        <v>4</v>
-      </c>
-      <c r="N25" s="2">
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="20"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="26">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="K10:O10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="B3:V5"/>
     <mergeCell ref="P9:Q9"/>

--- a/Cert/AMFE-s_Proceso_GlaucoTech.xlsx
+++ b/Cert/AMFE-s_Proceso_GlaucoTech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Escritorio\3ºCURSO\2.Cuatri\PBL6\Certif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Escritorio\3ºCURSO\2.Cuatri\PBL6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE88F4-F09E-4C52-9B21-99BB6EDE8047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A117F-A8F9-4EE9-86DA-D43FEE2A5EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>EFECTOS</t>
   </si>
@@ -55,7 +55,13 @@
  Y CONTROL PREVISTAS</t>
   </si>
   <si>
+    <t>FRECUENCIA</t>
+  </si>
+  <si>
     <t>GRAVEDAD</t>
+  </si>
+  <si>
+    <t>DETECTABILIDAD</t>
   </si>
   <si>
     <t>ESTADO ACTUAL</t>
@@ -99,6 +105,57 @@
     <t>PROCESO</t>
   </si>
   <si>
+    <t>BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>Calidad de Imagen</t>
+  </si>
+  <si>
+    <t>Mal centrada la imagen</t>
+  </si>
+  <si>
+    <t>Imagen borrosa</t>
+  </si>
+  <si>
+    <t>Reflejos de luz en la imagen</t>
+  </si>
+  <si>
+    <t>Las imágenes no se pueden procesar mediante el programa de prediccón, para determinar la presencia de glaucoma, debido a que la segmentación no se puede realizar de manera adecuada.</t>
+  </si>
+  <si>
+    <t>La capturadora de la imagen del ojo no esta centrada en el disco óptico del ojo.</t>
+  </si>
+  <si>
+    <t>La capturadora de la imagen del ojo se mueve durante el proceso de optención de imagen.</t>
+  </si>
+  <si>
+    <t>Excesiva iluminación del ojo durante el momento de optención de la imagen.</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE DETECCIÓN DE CALIDAD</t>
+  </si>
+  <si>
+    <t>Fallo en la detección del ruido en la imagen</t>
+  </si>
+  <si>
+    <t>No se descarta la imagen antes de introducirse en el modelo de predicción  por lo que el no se obtendrá un resultado consistente.</t>
+  </si>
+  <si>
+    <t>El programa no contempla todo tipo de ruidos, no detectando el ruido de la imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallo en la detección de contraste </t>
+  </si>
+  <si>
+    <t>El resultdao del programa no será correcto o directamente no dará resultado ya que no será capaz de segmentar las diferentes estructuras anatómicas del ojo.</t>
+  </si>
+  <si>
+    <t>No se descarta la imagen que no permite una adecuada segmentación antes de ser introducida en el programa de predicción de glaucoma.</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE PREDICCIÓN DE GLAUCOMA</t>
+  </si>
+  <si>
     <t>Segmentación</t>
   </si>
   <si>
@@ -114,6 +171,15 @@
     <t>Todas las imágenes no tienen la misma intensidad.</t>
   </si>
   <si>
+    <t>Dificultad para identificar el ROI en todas.</t>
+  </si>
+  <si>
+    <t>No se distingue de manera adecuada cada una de las partes anatómicas.</t>
+  </si>
+  <si>
+    <t>Fallo en el programa encargado de su detección.</t>
+  </si>
+  <si>
     <t>Convertir toda la imagen en color homogéneo.</t>
   </si>
   <si>
@@ -123,9 +189,36 @@
     <t>No tener un rango de intensidades similares en todas las imágenes.</t>
   </si>
   <si>
+    <t>INTERFAZ</t>
+  </si>
+  <si>
+    <t>PÁGINA WEB</t>
+  </si>
+  <si>
+    <t>ETIQUETA</t>
+  </si>
+  <si>
+    <t>Descripción del producto</t>
+  </si>
+  <si>
+    <t>Falta de información del producto</t>
+  </si>
+  <si>
+    <t>Uso erróneo del producto por desconocimiento del profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El producto esta mal explicado o falta información sobre algunos detalles </t>
+  </si>
+  <si>
+    <t>Programación de la Web</t>
+  </si>
+  <si>
     <t>Error de carga de la página</t>
   </si>
   <si>
+    <t>Sin acceso a la información proporcionada en la página web</t>
+  </si>
+  <si>
     <t>Caida del servidor por exceso de gente en la página al mismo tiempo</t>
   </si>
   <si>
@@ -150,6 +243,30 @@
     <t>Diseño del Etiquetado</t>
   </si>
   <si>
+    <t>Interferencias</t>
+  </si>
+  <si>
+    <t>Error de carga de imagen</t>
+  </si>
+  <si>
+    <t>Carga de Datos</t>
+  </si>
+  <si>
+    <t>Error en muestra de resultado</t>
+  </si>
+  <si>
+    <t>La imagen introducida al sistema no se puede procesar de tal manera que no se pueda ver resultado.</t>
+  </si>
+  <si>
+    <t>Error en la conexión entre interfaz y código del programa de procesado y predicción.</t>
+  </si>
+  <si>
+    <t>El profesional sanitario no puede acceder a la información facilitada por la aplicación.</t>
+  </si>
+  <si>
+    <t>Punto de control para validar que el sistema completo  funcione como se espera en su conjunto, y garantizar que nuevas modificaciones o correcciones no introduzcan nuevos errores en el sistema.</t>
+  </si>
+  <si>
     <t>Punto de Control en la validación y comprobación de la etiqueta</t>
   </si>
   <si>
@@ -171,166 +288,16 @@
     <t>Visualización previa de la imagen realizada antes de su procesado y aseguramiento de modelo de calidad más estricto</t>
   </si>
   <si>
+    <t>Aseguramiento de modelo de calidad más estricto para evitar realizar el análisis de imágenes no deseadas</t>
+  </si>
+  <si>
     <t>Punto de control posterior a la detección de la enfermedad, por parte del profesional,  para comprobar que la segmentación se ha realizado correctamente</t>
   </si>
   <si>
     <t>Punto de Control en la validación y comprobación de la descripción del producto</t>
   </si>
   <si>
-    <t>DISEÑO</t>
-  </si>
-  <si>
-    <t>INSTALACIÓN</t>
-  </si>
-  <si>
-    <t>Falta de información de la instalación del producto</t>
-  </si>
-  <si>
-    <t>Descarga errónea del producto por desconocimiento del profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La instalación producto esta mal explicado o falta información sobre algunos detalles </t>
-  </si>
-  <si>
-    <t>Descripción de la instalación del producto</t>
-  </si>
-  <si>
-    <t>Falta de acceso a descargar</t>
-  </si>
-  <si>
-    <t>Sin acceso a la página web, no pudiendo descargarse la aplicación</t>
-  </si>
-  <si>
-    <t>DESARROLLO</t>
-  </si>
-  <si>
-    <t>ETIQUETADO</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>Uso Inapropiado</t>
-  </si>
-  <si>
-    <t>Uso del producto para otro fin médico, por desconocmiento del producto</t>
-  </si>
-  <si>
-    <t>El producto no realiza la función para la que esta programada</t>
-  </si>
-  <si>
-    <t>Falta de información , en la descripción del producto</t>
-  </si>
-  <si>
-    <t>Revisión del código de la pagina y revisión continua de este</t>
-  </si>
-  <si>
-    <t>Mal uso del producto,  por desconocmiento de este</t>
-  </si>
-  <si>
-    <t>El producto da errores y no realiza su función</t>
-  </si>
-  <si>
-    <t>El usuario no lee las instrucciones del producto, y no sabe como se utiliza</t>
-  </si>
-  <si>
-    <t>Aseguramiento de que el usuario lee las instrucciones mediante,avisos previos al usuario de la obligación de ller las instrucciones antes de usar el producto</t>
-  </si>
-  <si>
-    <t>Etiqueta poco clara y difícil de entender</t>
-  </si>
-  <si>
-    <t>Un diseño confuso o desorganizado de la etiqueta  podría llevar a errores en el uso del producto</t>
-  </si>
-  <si>
-    <t>Mal estructuramiento y diseño de la información proporcionada en la etiqueta</t>
-  </si>
-  <si>
-    <t>Responsable de la validación y comprobación del etiquetado final</t>
-  </si>
-  <si>
-    <t>Mala configuración de la segmentación</t>
-  </si>
-  <si>
-    <t>La segmentación del ojo no detecta el disco bien, y realiza una segmentación incorrecta</t>
-  </si>
-  <si>
-    <t>En la programación del producto, las variables de la segmentación estan mal escogidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualización previa de la imagen segmentada realizada después de su procesado y aseguramiento de la correcta elección de variables </t>
-  </si>
-  <si>
-    <t>Error en los algoritmos de los modelos</t>
-  </si>
-  <si>
-    <t>Puede resultar en diagnósticos falsos positivos o negativos</t>
-  </si>
-  <si>
-    <t>Las variables encargadas de la predicción post-segmentación estan mal escogidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAVEDAD </t>
-  </si>
-  <si>
-    <t>OCURRENCIA</t>
-  </si>
-  <si>
-    <t>DETECCIÓN</t>
-  </si>
-  <si>
-    <t>Visualización previa de la imagen segmentada realizada después de su procesado y aseguramiento de modelos mas estrictos</t>
-  </si>
-  <si>
-    <t>Reprogramación de los modelos</t>
-  </si>
-  <si>
-    <t>Sergio Montero Alonso</t>
-  </si>
-  <si>
-    <t>Baja la Ocurrencia del problema</t>
-  </si>
-  <si>
-    <t>Falta de carácteristicas</t>
-  </si>
-  <si>
-    <t>En el procesado de imagen, el modelo no es capaz de sacar las suficientes características como para realizar la predicción</t>
-  </si>
-  <si>
-    <t>No hay un resultado concluyente</t>
-  </si>
-  <si>
-    <t>Interfaz de usuario deficiente</t>
-  </si>
-  <si>
-    <t>No se sabe como utilizar el producto</t>
-  </si>
-  <si>
-    <t>Interfaz de usuario mal diseñada</t>
-  </si>
-  <si>
-    <t>Revisión y validación de la interfaz</t>
-  </si>
-  <si>
-    <t>Integración del Software</t>
-  </si>
-  <si>
-    <t>Problemas de interoperabilidad con los sistemas sanitarios actuales</t>
-  </si>
-  <si>
-    <t>Falta de conexión entre sistemas</t>
-  </si>
-  <si>
-    <t>El software no es capaz de integrarse a los sistemas existentes en los hospitales</t>
-  </si>
-  <si>
-    <t>Aseguramiento de interoperabilidad del prodcuto y comprobación en la instalación</t>
-  </si>
-  <si>
-    <t>Modelos predictivos</t>
-  </si>
-  <si>
-    <t>Usuario y Interfaz</t>
+    <t>Revisión del código de la pagina y revisión continua de este.</t>
   </si>
 </sst>
 </file>
@@ -380,7 +347,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -396,7 +362,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,14 +387,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -636,6 +596,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -702,6 +673,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -804,32 +795,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +817,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,10 +830,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -870,19 +851,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,6 +890,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,159 +905,153 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1573,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1605,388 +1589,371 @@
   <sheetData>
     <row r="2" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:22" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="58"/>
+      <c r="B3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="2:22" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="61"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="2:22" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="66"/>
+      <c r="B6" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="61"/>
     </row>
     <row r="7" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="66"/>
+      <c r="B7" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="61"/>
     </row>
     <row r="8" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="66"/>
+      <c r="B8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="61"/>
     </row>
     <row r="9" spans="2:22" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="66"/>
+      <c r="B9" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="2:22" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="75" t="s">
+      <c r="B10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="77" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="74" t="s">
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
+      <c r="R10" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="73"/>
     </row>
     <row r="11" spans="2:22" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="36" t="s">
+      <c r="G11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="35" t="s">
+      <c r="M11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>16</v>
+      <c r="T11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>95</v>
+      <c r="B12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="13">
-        <v>10</v>
-      </c>
-      <c r="H12" s="14">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14">
         <v>7</v>
       </c>
-      <c r="I12" s="2">
-        <v>8</v>
-      </c>
-      <c r="J12" s="42">
-        <f t="shared" ref="J12:J25" si="0">G12*H12*I12</f>
-        <v>560</v>
+      <c r="H12" s="38">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6</v>
+      </c>
+      <c r="J12" s="39">
+        <f>G12*H12*I12</f>
+        <v>252</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7">
-        <v>10</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>5</v>
-      </c>
-      <c r="O12" s="43">
-        <f t="shared" ref="O12:O25" si="1">L12*M12*N12</f>
-        <v>250</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S12" s="3">
-        <v>10</v>
-      </c>
-      <c r="T12" s="3">
         <v>2</v>
       </c>
-      <c r="U12" s="3">
-        <v>5</v>
-      </c>
-      <c r="V12" s="44">
-        <f>S12*T12*U12</f>
-        <v>100</v>
-      </c>
+      <c r="O12" s="7">
+        <f>L12*M12*N12</f>
+        <v>42</v>
+      </c>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="41"/>
     </row>
     <row r="13" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="13">
+        <v>24</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="14">
         <v>7</v>
       </c>
-      <c r="H13" s="2">
-        <v>6</v>
+      <c r="H13" s="15">
+        <v>7</v>
       </c>
       <c r="I13" s="2">
-        <v>6</v>
-      </c>
-      <c r="J13" s="30">
-        <f t="shared" si="0"/>
-        <v>252</v>
+        <v>7</v>
+      </c>
+      <c r="J13" s="34">
+        <f t="shared" ref="J13:J25" si="0">G13*H13*I13</f>
+        <v>343</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7">
         <v>7</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="3">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
         <v>3</v>
       </c>
-      <c r="N13" s="7">
-        <v>2</v>
-      </c>
       <c r="O13" s="3">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" ref="O13:O25" si="1">L13*M13*N13</f>
+        <v>84</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1996,492 +1963,490 @@
       <c r="U13" s="4"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="25" t="s">
+    <row r="14" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="69"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6</v>
+      </c>
+      <c r="J14" s="34">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7">
+        <v>7</v>
+      </c>
+      <c r="M14" s="16">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>8</v>
+      </c>
+      <c r="J15" s="34">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="29">
+        <v>9</v>
+      </c>
+      <c r="M15" s="22">
+        <v>2</v>
+      </c>
+      <c r="N15" s="29">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+      <c r="J16" s="34">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="30">
+        <v>8</v>
+      </c>
+      <c r="M16" s="30">
+        <v>4</v>
+      </c>
+      <c r="N16" s="30">
+        <v>4</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8</v>
+      </c>
+      <c r="J17" s="34">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="6">
+        <v>6</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="6">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8</v>
+      </c>
+      <c r="J18" s="34">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="6">
+        <v>7</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6">
+        <v>4</v>
+      </c>
+      <c r="O18" s="37">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+    </row>
+    <row r="19" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="69"/>
+      <c r="C19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
+      <c r="J19" s="36">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="2">
+        <v>6</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+    </row>
+    <row r="20" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="22">
+        <v>6</v>
+      </c>
+      <c r="H20" s="22">
+        <v>6</v>
+      </c>
+      <c r="I20" s="22">
+        <v>5</v>
+      </c>
+      <c r="J20" s="35">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="29">
+        <v>6</v>
+      </c>
+      <c r="M20" s="29">
+        <v>2</v>
+      </c>
+      <c r="N20" s="29">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
+    </row>
+    <row r="21" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="69"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="22">
+        <v>6</v>
+      </c>
+      <c r="H21" s="22">
+        <v>6</v>
+      </c>
+      <c r="I21" s="22">
+        <v>6</v>
+      </c>
+      <c r="J21" s="34">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="33">
+        <v>6</v>
+      </c>
+      <c r="M21" s="33">
+        <v>4</v>
+      </c>
+      <c r="N21" s="33">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
+    </row>
+    <row r="22" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="2">
+        <v>8</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="26"/>
+    </row>
+    <row r="23" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="69"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3">
         <v>8</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H23" s="3">
         <v>5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I23" s="3">
         <v>6</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J23" s="34">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="3">
-        <v>8</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="46"/>
-    </row>
-    <row r="15" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="2">
-        <v>7</v>
-      </c>
-      <c r="H15" s="2">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6</v>
-      </c>
-      <c r="J15" s="30">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4</v>
-      </c>
-      <c r="O15" s="32">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="46"/>
-    </row>
-    <row r="16" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="6">
-        <v>6</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6">
-        <v>8</v>
-      </c>
-      <c r="J16" s="41">
-        <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="6">
-        <v>6</v>
-      </c>
-      <c r="M16" s="6">
-        <v>3</v>
-      </c>
-      <c r="N16" s="6">
-        <v>4</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="2">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2">
-        <v>7</v>
-      </c>
-      <c r="J17" s="30">
-        <f t="shared" ref="J17" si="2">G17*H17*I17</f>
-        <v>343</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="3">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5</v>
-      </c>
-      <c r="O17" s="32">
-        <f t="shared" ref="O17" si="3">L17*M17*N17</f>
-        <v>140</v>
-      </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
-    </row>
-    <row r="18" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="6">
-        <v>6</v>
-      </c>
-      <c r="H18" s="6">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <v>5</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="2">
-        <v>6</v>
-      </c>
-      <c r="M18" s="2">
-        <v>4</v>
-      </c>
-      <c r="N18" s="2">
-        <v>6</v>
-      </c>
-      <c r="O18" s="32">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="23"/>
-    </row>
-    <row r="19" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="19">
-        <v>5</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="26">
-        <v>6</v>
-      </c>
-      <c r="M19" s="26">
-        <v>2</v>
-      </c>
-      <c r="N19" s="26">
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="23"/>
-    </row>
-    <row r="20" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="19">
-        <v>6</v>
-      </c>
-      <c r="H20" s="19">
-        <v>6</v>
-      </c>
-      <c r="I20" s="19">
-        <v>6</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="29">
-        <v>6</v>
-      </c>
-      <c r="M20" s="29">
-        <v>4</v>
-      </c>
-      <c r="N20" s="29">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
-    </row>
-    <row r="21" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="2">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2">
-        <v>7</v>
-      </c>
-      <c r="J21" s="30">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="2">
-        <v>8</v>
-      </c>
-      <c r="M21" s="2">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="23"/>
-    </row>
-    <row r="22" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="19">
-        <v>7</v>
-      </c>
-      <c r="H22" s="40">
-        <v>6</v>
-      </c>
-      <c r="I22" s="19">
-        <v>8</v>
-      </c>
-      <c r="J22" s="33">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="26">
-        <v>7</v>
-      </c>
-      <c r="M22" s="26">
-        <v>4</v>
-      </c>
-      <c r="N22" s="26">
-        <v>3</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="23"/>
-    </row>
-    <row r="23" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="3">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L23" s="3">
         <v>8</v>
@@ -2496,83 +2461,83 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="23"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="26"/>
     </row>
     <row r="24" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="67" t="s">
         <v>50</v>
       </c>
+      <c r="C24" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G24" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I24" s="6">
         <v>8</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="L24" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" s="2">
         <v>4</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="3">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="26"/>
     </row>
     <row r="25" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52"/>
-      <c r="C25" s="25" t="s">
-        <v>51</v>
+      <c r="B25" s="69"/>
+      <c r="C25" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="G25" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
         <v>7</v>
@@ -2580,15 +2545,15 @@
       <c r="I25" s="2">
         <v>4</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L25" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M25" s="2">
         <v>4</v>
@@ -2598,46 +2563,49 @@
       </c>
       <c r="O25" s="3">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B23"/>
+  <mergeCells count="29">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="K10:O10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="B3:V5"/>
     <mergeCell ref="P9:Q9"/>

--- a/Cert/AMFE-s_Proceso_GlaucoTech.xlsx
+++ b/Cert/AMFE-s_Proceso_GlaucoTech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Escritorio\3ºCURSO\2.Cuatri\PBL6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Escritorio\3ºCURSO\2.Cuatri\PBL6\Certif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A117F-A8F9-4EE9-86DA-D43FEE2A5EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F573F6F0-E396-46DC-9209-CB61895DFBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>EFECTOS</t>
   </si>
@@ -55,13 +55,7 @@
  Y CONTROL PREVISTAS</t>
   </si>
   <si>
-    <t>FRECUENCIA</t>
-  </si>
-  <si>
     <t>GRAVEDAD</t>
-  </si>
-  <si>
-    <t>DETECTABILIDAD</t>
   </si>
   <si>
     <t>ESTADO ACTUAL</t>
@@ -105,57 +99,6 @@
     <t>PROCESO</t>
   </si>
   <si>
-    <t>BASE DE DATOS</t>
-  </si>
-  <si>
-    <t>Calidad de Imagen</t>
-  </si>
-  <si>
-    <t>Mal centrada la imagen</t>
-  </si>
-  <si>
-    <t>Imagen borrosa</t>
-  </si>
-  <si>
-    <t>Reflejos de luz en la imagen</t>
-  </si>
-  <si>
-    <t>Las imágenes no se pueden procesar mediante el programa de prediccón, para determinar la presencia de glaucoma, debido a que la segmentación no se puede realizar de manera adecuada.</t>
-  </si>
-  <si>
-    <t>La capturadora de la imagen del ojo no esta centrada en el disco óptico del ojo.</t>
-  </si>
-  <si>
-    <t>La capturadora de la imagen del ojo se mueve durante el proceso de optención de imagen.</t>
-  </si>
-  <si>
-    <t>Excesiva iluminación del ojo durante el momento de optención de la imagen.</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE DETECCIÓN DE CALIDAD</t>
-  </si>
-  <si>
-    <t>Fallo en la detección del ruido en la imagen</t>
-  </si>
-  <si>
-    <t>No se descarta la imagen antes de introducirse en el modelo de predicción  por lo que el no se obtendrá un resultado consistente.</t>
-  </si>
-  <si>
-    <t>El programa no contempla todo tipo de ruidos, no detectando el ruido de la imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallo en la detección de contraste </t>
-  </si>
-  <si>
-    <t>El resultdao del programa no será correcto o directamente no dará resultado ya que no será capaz de segmentar las diferentes estructuras anatómicas del ojo.</t>
-  </si>
-  <si>
-    <t>No se descarta la imagen que no permite una adecuada segmentación antes de ser introducida en el programa de predicción de glaucoma.</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE PREDICCIÓN DE GLAUCOMA</t>
-  </si>
-  <si>
     <t>Segmentación</t>
   </si>
   <si>
@@ -171,15 +114,6 @@
     <t>Todas las imágenes no tienen la misma intensidad.</t>
   </si>
   <si>
-    <t>Dificultad para identificar el ROI en todas.</t>
-  </si>
-  <si>
-    <t>No se distingue de manera adecuada cada una de las partes anatómicas.</t>
-  </si>
-  <si>
-    <t>Fallo en el programa encargado de su detección.</t>
-  </si>
-  <si>
     <t>Convertir toda la imagen en color homogéneo.</t>
   </si>
   <si>
@@ -189,36 +123,9 @@
     <t>No tener un rango de intensidades similares en todas las imágenes.</t>
   </si>
   <si>
-    <t>INTERFAZ</t>
-  </si>
-  <si>
-    <t>PÁGINA WEB</t>
-  </si>
-  <si>
-    <t>ETIQUETA</t>
-  </si>
-  <si>
-    <t>Descripción del producto</t>
-  </si>
-  <si>
-    <t>Falta de información del producto</t>
-  </si>
-  <si>
-    <t>Uso erróneo del producto por desconocimiento del profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El producto esta mal explicado o falta información sobre algunos detalles </t>
-  </si>
-  <si>
-    <t>Programación de la Web</t>
-  </si>
-  <si>
     <t>Error de carga de la página</t>
   </si>
   <si>
-    <t>Sin acceso a la información proporcionada en la página web</t>
-  </si>
-  <si>
     <t>Caida del servidor por exceso de gente en la página al mismo tiempo</t>
   </si>
   <si>
@@ -243,30 +150,6 @@
     <t>Diseño del Etiquetado</t>
   </si>
   <si>
-    <t>Interferencias</t>
-  </si>
-  <si>
-    <t>Error de carga de imagen</t>
-  </si>
-  <si>
-    <t>Carga de Datos</t>
-  </si>
-  <si>
-    <t>Error en muestra de resultado</t>
-  </si>
-  <si>
-    <t>La imagen introducida al sistema no se puede procesar de tal manera que no se pueda ver resultado.</t>
-  </si>
-  <si>
-    <t>Error en la conexión entre interfaz y código del programa de procesado y predicción.</t>
-  </si>
-  <si>
-    <t>El profesional sanitario no puede acceder a la información facilitada por la aplicación.</t>
-  </si>
-  <si>
-    <t>Punto de control para validar que el sistema completo  funcione como se espera en su conjunto, y garantizar que nuevas modificaciones o correcciones no introduzcan nuevos errores en el sistema.</t>
-  </si>
-  <si>
     <t>Punto de Control en la validación y comprobación de la etiqueta</t>
   </si>
   <si>
@@ -288,16 +171,166 @@
     <t>Visualización previa de la imagen realizada antes de su procesado y aseguramiento de modelo de calidad más estricto</t>
   </si>
   <si>
-    <t>Aseguramiento de modelo de calidad más estricto para evitar realizar el análisis de imágenes no deseadas</t>
-  </si>
-  <si>
     <t>Punto de control posterior a la detección de la enfermedad, por parte del profesional,  para comprobar que la segmentación se ha realizado correctamente</t>
   </si>
   <si>
     <t>Punto de Control en la validación y comprobación de la descripción del producto</t>
   </si>
   <si>
-    <t>Revisión del código de la pagina y revisión continua de este.</t>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>INSTALACIÓN</t>
+  </si>
+  <si>
+    <t>Falta de información de la instalación del producto</t>
+  </si>
+  <si>
+    <t>Descarga errónea del producto por desconocimiento del profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La instalación producto esta mal explicado o falta información sobre algunos detalles </t>
+  </si>
+  <si>
+    <t>Descripción de la instalación del producto</t>
+  </si>
+  <si>
+    <t>Falta de acceso a descargar</t>
+  </si>
+  <si>
+    <t>Sin acceso a la página web, no pudiendo descargarse la aplicación</t>
+  </si>
+  <si>
+    <t>DESARROLLO</t>
+  </si>
+  <si>
+    <t>ETIQUETADO</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>Uso Inapropiado</t>
+  </si>
+  <si>
+    <t>Uso del producto para otro fin médico, por desconocmiento del producto</t>
+  </si>
+  <si>
+    <t>El producto no realiza la función para la que esta programada</t>
+  </si>
+  <si>
+    <t>Falta de información , en la descripción del producto</t>
+  </si>
+  <si>
+    <t>Revisión del código de la pagina y revisión continua de este</t>
+  </si>
+  <si>
+    <t>Mal uso del producto,  por desconocmiento de este</t>
+  </si>
+  <si>
+    <t>El producto da errores y no realiza su función</t>
+  </si>
+  <si>
+    <t>El usuario no lee las instrucciones del producto, y no sabe como se utiliza</t>
+  </si>
+  <si>
+    <t>Aseguramiento de que el usuario lee las instrucciones mediante,avisos previos al usuario de la obligación de ller las instrucciones antes de usar el producto</t>
+  </si>
+  <si>
+    <t>Etiqueta poco clara y difícil de entender</t>
+  </si>
+  <si>
+    <t>Un diseño confuso o desorganizado de la etiqueta  podría llevar a errores en el uso del producto</t>
+  </si>
+  <si>
+    <t>Mal estructuramiento y diseño de la información proporcionada en la etiqueta</t>
+  </si>
+  <si>
+    <t>Responsable de la validación y comprobación del etiquetado final</t>
+  </si>
+  <si>
+    <t>Mala configuración de la segmentación</t>
+  </si>
+  <si>
+    <t>La segmentación del ojo no detecta el disco bien, y realiza una segmentación incorrecta</t>
+  </si>
+  <si>
+    <t>En la programación del producto, las variables de la segmentación estan mal escogidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualización previa de la imagen segmentada realizada después de su procesado y aseguramiento de la correcta elección de variables </t>
+  </si>
+  <si>
+    <t>Error en los algoritmos de los modelos</t>
+  </si>
+  <si>
+    <t>Puede resultar en diagnósticos falsos positivos o negativos</t>
+  </si>
+  <si>
+    <t>Las variables encargadas de la predicción post-segmentación estan mal escogidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAVEDAD </t>
+  </si>
+  <si>
+    <t>OCURRENCIA</t>
+  </si>
+  <si>
+    <t>DETECCIÓN</t>
+  </si>
+  <si>
+    <t>Visualización previa de la imagen segmentada realizada después de su procesado y aseguramiento de modelos mas estrictos</t>
+  </si>
+  <si>
+    <t>Reprogramación de los modelos</t>
+  </si>
+  <si>
+    <t>Sergio Montero Alonso</t>
+  </si>
+  <si>
+    <t>Baja la Ocurrencia del problema</t>
+  </si>
+  <si>
+    <t>Falta de carácteristicas</t>
+  </si>
+  <si>
+    <t>En el procesado de imagen, el modelo no es capaz de sacar las suficientes características como para realizar la predicción</t>
+  </si>
+  <si>
+    <t>No hay un resultado concluyente</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario deficiente</t>
+  </si>
+  <si>
+    <t>No se sabe como utilizar el producto</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario mal diseñada</t>
+  </si>
+  <si>
+    <t>Revisión y validación de la interfaz</t>
+  </si>
+  <si>
+    <t>Integración del Software</t>
+  </si>
+  <si>
+    <t>Problemas de interoperabilidad con los sistemas sanitarios actuales</t>
+  </si>
+  <si>
+    <t>Falta de conexión entre sistemas</t>
+  </si>
+  <si>
+    <t>El software no es capaz de integrarse a los sistemas existentes en los hospitales</t>
+  </si>
+  <si>
+    <t>Aseguramiento de interoperabilidad del prodcuto y comprobación en la instalación</t>
+  </si>
+  <si>
+    <t>Modelos predictivos</t>
+  </si>
+  <si>
+    <t>Usuario y Interfaz</t>
   </si>
 </sst>
 </file>
@@ -347,6 +380,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -362,7 +396,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -596,17 +636,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -673,7 +702,73 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -681,22 +776,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -706,108 +820,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,7 +839,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,13 +852,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -851,25 +870,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,9 +903,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,39 +915,102 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -996,63 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1589,371 +1605,388 @@
   <sheetData>
     <row r="2" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:22" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
+      <c r="B3" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
     </row>
     <row r="4" spans="2:22" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="56"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="73"/>
     </row>
     <row r="5" spans="2:22" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="59"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="61"/>
+      <c r="B6" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="78"/>
     </row>
     <row r="7" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="61"/>
+      <c r="B7" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="78"/>
     </row>
     <row r="8" spans="2:22" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="61"/>
+      <c r="B8" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="78"/>
     </row>
     <row r="9" spans="2:22" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="61"/>
+      <c r="B9" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="78"/>
     </row>
     <row r="10" spans="2:22" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="79" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="74" t="s">
+      <c r="R10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="73"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="2:22" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="44" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="42" t="s">
-        <v>18</v>
+      <c r="T11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>22</v>
+      <c r="B12" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="14">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10</v>
+      </c>
+      <c r="H12" s="14">
         <v>7</v>
       </c>
-      <c r="H12" s="38">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6</v>
-      </c>
-      <c r="J12" s="39">
-        <f>G12*H12*I12</f>
-        <v>252</v>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" ref="J12:J25" si="0">G12*H12*I12</f>
+        <v>560</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="43">
+        <f t="shared" ref="O12:O25" si="1">L12*M12*N12</f>
+        <v>250</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="7">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="R12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="3">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
         <v>2</v>
       </c>
-      <c r="O12" s="7">
-        <f>L12*M12*N12</f>
-        <v>42</v>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="41"/>
+      <c r="U12" s="3">
+        <v>5</v>
+      </c>
+      <c r="V12" s="44">
+        <f>S12*T12*U12</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="14">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="13">
         <v>7</v>
       </c>
-      <c r="H13" s="15">
-        <v>7</v>
+      <c r="H13" s="2">
+        <v>6</v>
       </c>
       <c r="I13" s="2">
-        <v>7</v>
-      </c>
-      <c r="J13" s="34">
-        <f t="shared" ref="J13:J25" si="0">G13*H13*I13</f>
-        <v>343</v>
+        <v>6</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="0"/>
+        <v>252</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7">
         <v>7</v>
       </c>
-      <c r="M13" s="3">
-        <v>4</v>
+      <c r="M13" s="15">
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" ref="O13:O25" si="1">L13*M13*N13</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1963,474 +1996,476 @@
       <c r="U13" s="4"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
+    <row r="14" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52"/>
+      <c r="C14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
-        <v>6</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="J14" s="30">
         <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7</v>
-      </c>
-      <c r="M14" s="16">
+        <v>240</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="3">
+        <v>8</v>
+      </c>
+      <c r="M14" s="15">
         <v>3</v>
       </c>
-      <c r="N14" s="7">
-        <v>2</v>
+      <c r="N14" s="3">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
     </row>
-    <row r="15" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>33</v>
+    <row r="15" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="O15" s="32">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+    </row>
+    <row r="16" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6">
         <v>8</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J16" s="41">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="29">
+      <c r="K16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="6">
+        <v>6</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>4</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" ref="J17" si="2">G17*H17*I17</f>
+        <v>343</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="32">
+        <f t="shared" ref="O17" si="3">L17*M17*N17</f>
+        <v>140</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="53"/>
+      <c r="C18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6</v>
+      </c>
+      <c r="O18" s="32">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="19">
         <v>9</v>
       </c>
-      <c r="M15" s="22">
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="26">
+        <v>6</v>
+      </c>
+      <c r="M19" s="26">
         <v>2</v>
       </c>
-      <c r="N15" s="29">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N19" s="26">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
     </row>
-    <row r="16" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="24" t="s">
+    <row r="20" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19">
+        <v>6</v>
+      </c>
+      <c r="I20" s="19">
+        <v>6</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="29">
+        <v>6</v>
+      </c>
+      <c r="M20" s="29">
+        <v>4</v>
+      </c>
+      <c r="N20" s="29">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2">
+      <c r="L21" s="2">
         <v>8</v>
       </c>
-      <c r="H16" s="2">
+      <c r="M21" s="2">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="19">
+        <v>7</v>
+      </c>
+      <c r="H22" s="40">
         <v>6</v>
       </c>
-      <c r="I16" s="2">
-        <v>7</v>
-      </c>
-      <c r="J16" s="34">
+      <c r="I22" s="19">
+        <v>8</v>
+      </c>
+      <c r="J22" s="33">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="K16" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="30">
-        <v>8</v>
-      </c>
-      <c r="M16" s="30">
+      <c r="K22" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="26">
+        <v>7</v>
+      </c>
+      <c r="M22" s="26">
         <v>4</v>
       </c>
-      <c r="N16" s="30">
-        <v>4</v>
-      </c>
-      <c r="O16" s="37">
+      <c r="N22" s="26">
+        <v>3</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6">
-        <v>6</v>
-      </c>
-      <c r="H17" s="6">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6">
-        <v>8</v>
-      </c>
-      <c r="J17" s="34">
-        <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="6">
-        <v>6</v>
-      </c>
-      <c r="M17" s="6">
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
-    </row>
-    <row r="18" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="6">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <v>8</v>
-      </c>
-      <c r="J18" s="34">
-        <f t="shared" si="0"/>
-        <v>392</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="6">
-        <v>7</v>
-      </c>
-      <c r="M18" s="6">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6">
-        <v>4</v>
-      </c>
-      <c r="O18" s="37">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-    </row>
-    <row r="19" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>5</v>
-      </c>
-      <c r="J19" s="36">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="2">
-        <v>6</v>
-      </c>
-      <c r="M19" s="2">
-        <v>4</v>
-      </c>
-      <c r="N19" s="2">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="26"/>
-    </row>
-    <row r="20" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="22">
-        <v>6</v>
-      </c>
-      <c r="H20" s="22">
-        <v>6</v>
-      </c>
-      <c r="I20" s="22">
-        <v>5</v>
-      </c>
-      <c r="J20" s="35">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="29">
-        <v>6</v>
-      </c>
-      <c r="M20" s="29">
-        <v>2</v>
-      </c>
-      <c r="N20" s="29">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
-    </row>
-    <row r="21" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="22">
-        <v>6</v>
-      </c>
-      <c r="H21" s="22">
-        <v>6</v>
-      </c>
-      <c r="I21" s="22">
-        <v>6</v>
-      </c>
-      <c r="J21" s="34">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="33">
-        <v>6</v>
-      </c>
-      <c r="M21" s="33">
-        <v>4</v>
-      </c>
-      <c r="N21" s="33">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
-    </row>
-    <row r="22" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="2">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2">
-        <v>7</v>
-      </c>
-      <c r="J22" s="34">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="2">
-        <v>8</v>
-      </c>
-      <c r="M22" s="2">
-        <v>3</v>
-      </c>
-      <c r="N22" s="2">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3">
         <v>8</v>
@@ -2441,12 +2476,12 @@
       <c r="I23" s="3">
         <v>6</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="30">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L23" s="3">
         <v>8</v>
@@ -2461,151 +2496,132 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="26"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" spans="2:22" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G24" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24" s="6">
         <v>8</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="30">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="L24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" s="2">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="32">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="30">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="26"/>
-    </row>
-    <row r="25" spans="2:22" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="2">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2">
-        <v>4</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="2">
-        <v>6</v>
-      </c>
-      <c r="M25" s="2">
-        <v>4</v>
-      </c>
-      <c r="N25" s="2">
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="20"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="26">
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="B3:V5"/>
     <mergeCell ref="P9:Q9"/>
@@ -2616,6 +2632,22 @@
     <mergeCell ref="R7:V7"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,6 +2672,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a60bd0ed-6c94-4ccf-b866-c76c7887cd60" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004CFD171F51FA73478CA9FE425E910C9D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="65efb9c71fa12a42015e1712bef1605a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a60bd0ed-6c94-4ccf-b866-c76c7887cd60" xmlns:ns4="97b8de9a-07de-4d8c-840a-97ec8fb03718" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8c8a9d5849dce9e7dd468bec265966d" ns3:_="" ns4:_="">
     <xsd:import namespace="a60bd0ed-6c94-4ccf-b866-c76c7887cd60"/>
@@ -2860,24 +2909,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DF7B18-31D3-426E-9E09-19C470AF5068}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="97b8de9a-07de-4d8c-840a-97ec8fb03718"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a60bd0ed-6c94-4ccf-b866-c76c7887cd60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a60bd0ed-6c94-4ccf-b866-c76c7887cd60" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9E272D-2979-4596-AEFA-C244E894EFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040F85FA-575B-4F4D-8BA1-42EBC299B88C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2894,29 +2951,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9E272D-2979-4596-AEFA-C244E894EFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DF7B18-31D3-426E-9E09-19C470AF5068}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="97b8de9a-07de-4d8c-840a-97ec8fb03718"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a60bd0ed-6c94-4ccf-b866-c76c7887cd60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>